--- a/MMS/Plan/计划导入模板/计划导入模板.xlsx
+++ b/MMS/Plan/计划导入模板/计划导入模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,14 +45,30 @@
   </si>
   <si>
     <t>计划交付时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -150,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,10 +199,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,7 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,14 +408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
@@ -409,7 +424,7 @@
     <col min="8" max="8" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,6 +448,32 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43028</v>
       </c>
     </row>
   </sheetData>
